--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterationDetails" sheetId="1" state="visible" r:id="rId3"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">Ashutosh</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">admin@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mukesh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mukesh@123</t>
   </si>
 </sst>
 </file>
@@ -447,10 +441,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,20 +468,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="admin@email.com"/>
     <hyperlink ref="B2" r:id="rId2" display="admin@123"/>
-    <hyperlink ref="A3" r:id="rId3" display="mukesh@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId4" display="mukesh@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -552,7 +536,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
